--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pcsk9-Vldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pcsk9-Vldlr.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4888046666666666</v>
+        <v>0.4670743333333333</v>
       </c>
       <c r="H2">
-        <v>1.466414</v>
+        <v>1.401223</v>
       </c>
       <c r="I2">
-        <v>0.2161569274877377</v>
+        <v>0.1980255150811789</v>
       </c>
       <c r="J2">
-        <v>0.2161569274877378</v>
+        <v>0.1980255150811789</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.463191</v>
+        <v>0.5001966666666666</v>
       </c>
       <c r="N2">
-        <v>1.389573</v>
+        <v>1.50059</v>
       </c>
       <c r="O2">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="P2">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="Q2">
-        <v>0.2264099223579999</v>
+        <v>0.2336290246188888</v>
       </c>
       <c r="R2">
-        <v>2.037689301222</v>
+        <v>2.10266122157</v>
       </c>
       <c r="S2">
-        <v>0.007637180217400084</v>
+        <v>0.007711168935395511</v>
       </c>
       <c r="T2">
-        <v>0.007637180217400087</v>
+        <v>0.007711168935395511</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4888046666666666</v>
+        <v>0.4670743333333333</v>
       </c>
       <c r="H3">
-        <v>1.466414</v>
+        <v>1.401223</v>
       </c>
       <c r="I3">
-        <v>0.2161569274877377</v>
+        <v>0.1980255150811789</v>
       </c>
       <c r="J3">
-        <v>0.2161569274877378</v>
+        <v>0.1980255150811789</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>29.798788</v>
       </c>
       <c r="O3">
-        <v>0.7576717833204485</v>
+        <v>0.7732779360092192</v>
       </c>
       <c r="P3">
-        <v>0.7576717833204486</v>
+        <v>0.7732779360092191</v>
       </c>
       <c r="Q3">
-        <v>4.855262211803554</v>
+        <v>4.639416346413777</v>
       </c>
       <c r="R3">
-        <v>43.69735990623199</v>
+        <v>41.75474711772399</v>
       </c>
       <c r="S3">
-        <v>0.1637760047267031</v>
+        <v>0.1531287615791366</v>
       </c>
       <c r="T3">
-        <v>0.1637760047267032</v>
+        <v>0.1531287615791365</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4888046666666666</v>
+        <v>0.4670743333333333</v>
       </c>
       <c r="H4">
-        <v>1.466414</v>
+        <v>1.401223</v>
       </c>
       <c r="I4">
-        <v>0.2161569274877377</v>
+        <v>0.1980255150811789</v>
       </c>
       <c r="J4">
-        <v>0.2161569274877378</v>
+        <v>0.1980255150811789</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.585130333333333</v>
+        <v>2.334238666666666</v>
       </c>
       <c r="N4">
-        <v>7.755390999999999</v>
+        <v>7.002715999999999</v>
       </c>
       <c r="O4">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411497</v>
       </c>
       <c r="P4">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411496</v>
       </c>
       <c r="Q4">
-        <v>1.263623770874889</v>
+        <v>1.090262969074222</v>
       </c>
       <c r="R4">
-        <v>11.372613937874</v>
+        <v>9.812366721667999</v>
       </c>
       <c r="S4">
-        <v>0.04262411454698865</v>
+        <v>0.03598526318487869</v>
       </c>
       <c r="T4">
-        <v>0.04262411454698866</v>
+        <v>0.03598526318487869</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4888046666666666</v>
+        <v>0.4670743333333333</v>
       </c>
       <c r="H5">
-        <v>1.466414</v>
+        <v>1.401223</v>
       </c>
       <c r="I5">
-        <v>0.2161569274877377</v>
+        <v>0.1980255150811789</v>
       </c>
       <c r="J5">
-        <v>0.2161569274877378</v>
+        <v>0.1980255150811789</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1285543333333333</v>
+        <v>0.07786066666666666</v>
       </c>
       <c r="N5">
-        <v>0.385663</v>
+        <v>0.233582</v>
       </c>
       <c r="O5">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120818</v>
       </c>
       <c r="P5">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120817</v>
       </c>
       <c r="Q5">
-        <v>0.06283795805355555</v>
+        <v>0.03636671897622222</v>
       </c>
       <c r="R5">
-        <v>0.5655416224819999</v>
+        <v>0.3273004707859999</v>
       </c>
       <c r="S5">
-        <v>0.002119627996645854</v>
+        <v>0.001200321381768207</v>
       </c>
       <c r="T5">
-        <v>0.002119627996645854</v>
+        <v>0.001200321381768207</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>3.694043</v>
       </c>
       <c r="I6">
-        <v>0.5445208412410036</v>
+        <v>0.5220544965412525</v>
       </c>
       <c r="J6">
-        <v>0.5445208412410038</v>
+        <v>0.5220544965412525</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.463191</v>
+        <v>0.5001966666666666</v>
       </c>
       <c r="N6">
-        <v>1.389573</v>
+        <v>1.50059</v>
       </c>
       <c r="O6">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="P6">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="Q6">
-        <v>0.5703491570709999</v>
+        <v>0.6159159983744443</v>
       </c>
       <c r="R6">
-        <v>5.133142413639</v>
+        <v>5.543243985369999</v>
       </c>
       <c r="S6">
-        <v>0.0192388180430801</v>
+        <v>0.02032894808864487</v>
       </c>
       <c r="T6">
-        <v>0.0192388180430801</v>
+        <v>0.02032894808864487</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.694043</v>
       </c>
       <c r="I7">
-        <v>0.5445208412410036</v>
+        <v>0.5220544965412525</v>
       </c>
       <c r="J7">
-        <v>0.5445208412410038</v>
+        <v>0.5220544965412525</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>29.798788</v>
       </c>
       <c r="O7">
-        <v>0.7576717833204485</v>
+        <v>0.7732779360092192</v>
       </c>
       <c r="P7">
-        <v>0.7576717833204486</v>
+        <v>0.7732779360092191</v>
       </c>
       <c r="Q7">
         <v>12.23088935776489</v>
@@ -883,10 +883,10 @@
         <v>110.078004219884</v>
       </c>
       <c r="S7">
-        <v>0.4125680768382221</v>
+        <v>0.4036932235697518</v>
       </c>
       <c r="T7">
-        <v>0.4125680768382222</v>
+        <v>0.4036932235697517</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>3.694043</v>
       </c>
       <c r="I8">
-        <v>0.5445208412410036</v>
+        <v>0.5220544965412525</v>
       </c>
       <c r="J8">
-        <v>0.5445208412410038</v>
+        <v>0.5220544965412525</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.585130333333333</v>
+        <v>2.334238666666666</v>
       </c>
       <c r="N8">
-        <v>7.755390999999999</v>
+        <v>7.002715999999999</v>
       </c>
       <c r="O8">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411497</v>
       </c>
       <c r="P8">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411496</v>
       </c>
       <c r="Q8">
-        <v>3.183194203979222</v>
+        <v>2.874259335643111</v>
       </c>
       <c r="R8">
-        <v>28.648747835813</v>
+        <v>25.868334020788</v>
       </c>
       <c r="S8">
-        <v>0.1073743922067722</v>
+        <v>0.0948679186476805</v>
       </c>
       <c r="T8">
-        <v>0.1073743922067722</v>
+        <v>0.09486791864768049</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>3.694043</v>
       </c>
       <c r="I9">
-        <v>0.5445208412410036</v>
+        <v>0.5220544965412525</v>
       </c>
       <c r="J9">
-        <v>0.5445208412410038</v>
+        <v>0.5220544965412525</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1285543333333333</v>
+        <v>0.07786066666666666</v>
       </c>
       <c r="N9">
-        <v>0.385663</v>
+        <v>0.233582</v>
       </c>
       <c r="O9">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120818</v>
       </c>
       <c r="P9">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120817</v>
       </c>
       <c r="Q9">
-        <v>0.1582950783898888</v>
+        <v>0.0958735502251111</v>
       </c>
       <c r="R9">
-        <v>1.424655705509</v>
+        <v>0.8628619520259999</v>
       </c>
       <c r="S9">
-        <v>0.005339554152929282</v>
+        <v>0.003164406235175396</v>
       </c>
       <c r="T9">
-        <v>0.005339554152929283</v>
+        <v>0.003164406235175395</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4222286666666666</v>
+        <v>0.6061993333333334</v>
       </c>
       <c r="H10">
-        <v>1.266686</v>
+        <v>1.818598</v>
       </c>
       <c r="I10">
-        <v>0.1867159982458791</v>
+        <v>0.2570103443032279</v>
       </c>
       <c r="J10">
-        <v>0.1867159982458791</v>
+        <v>0.2570103443032279</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.463191</v>
+        <v>0.5001966666666666</v>
       </c>
       <c r="N10">
-        <v>1.389573</v>
+        <v>1.50059</v>
       </c>
       <c r="O10">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="P10">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="Q10">
-        <v>0.195572518342</v>
+        <v>0.3032188858688889</v>
       </c>
       <c r="R10">
-        <v>1.760152665078</v>
+        <v>2.72896997282</v>
       </c>
       <c r="S10">
-        <v>0.006596983703686438</v>
+        <v>0.01000805468049868</v>
       </c>
       <c r="T10">
-        <v>0.00659698370368644</v>
+        <v>0.01000805468049868</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4222286666666666</v>
+        <v>0.6061993333333334</v>
       </c>
       <c r="H11">
-        <v>1.266686</v>
+        <v>1.818598</v>
       </c>
       <c r="I11">
-        <v>0.1867159982458791</v>
+        <v>0.2570103443032279</v>
       </c>
       <c r="J11">
-        <v>0.1867159982458791</v>
+        <v>0.2570103443032279</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>29.798788</v>
       </c>
       <c r="O11">
-        <v>0.7576717833204485</v>
+        <v>0.7732779360092192</v>
       </c>
       <c r="P11">
-        <v>0.7576717833204486</v>
+        <v>0.7732779360092191</v>
       </c>
       <c r="Q11">
-        <v>4.193967508507555</v>
+        <v>6.021335139913778</v>
       </c>
       <c r="R11">
-        <v>37.74570757656799</v>
+        <v>54.192016259224</v>
       </c>
       <c r="S11">
-        <v>0.141469443365413</v>
+        <v>0.1987404285758189</v>
       </c>
       <c r="T11">
-        <v>0.141469443365413</v>
+        <v>0.1987404285758188</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4222286666666666</v>
+        <v>0.6061993333333334</v>
       </c>
       <c r="H12">
-        <v>1.266686</v>
+        <v>1.818598</v>
       </c>
       <c r="I12">
-        <v>0.1867159982458791</v>
+        <v>0.2570103443032279</v>
       </c>
       <c r="J12">
-        <v>0.1867159982458791</v>
+        <v>0.2570103443032279</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.585130333333333</v>
+        <v>2.334238666666666</v>
       </c>
       <c r="N12">
-        <v>7.755390999999999</v>
+        <v>7.002715999999999</v>
       </c>
       <c r="O12">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411497</v>
       </c>
       <c r="P12">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411496</v>
       </c>
       <c r="Q12">
-        <v>1.091516133802889</v>
+        <v>1.415013923574222</v>
       </c>
       <c r="R12">
-        <v>9.823645204225999</v>
+        <v>12.735125312168</v>
       </c>
       <c r="S12">
-        <v>0.03681864000143675</v>
+        <v>0.04670400618423622</v>
       </c>
       <c r="T12">
-        <v>0.03681864000143676</v>
+        <v>0.04670400618423621</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4222286666666666</v>
+        <v>0.6061993333333334</v>
       </c>
       <c r="H13">
-        <v>1.266686</v>
+        <v>1.818598</v>
       </c>
       <c r="I13">
-        <v>0.1867159982458791</v>
+        <v>0.2570103443032279</v>
       </c>
       <c r="J13">
-        <v>0.1867159982458791</v>
+        <v>0.2570103443032279</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1285543333333333</v>
+        <v>0.07786066666666666</v>
       </c>
       <c r="N13">
-        <v>0.385663</v>
+        <v>0.233582</v>
       </c>
       <c r="O13">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120818</v>
       </c>
       <c r="P13">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120817</v>
       </c>
       <c r="Q13">
-        <v>0.05427932475755555</v>
+        <v>0.04719908422622222</v>
       </c>
       <c r="R13">
-        <v>0.488513922818</v>
+        <v>0.424791758036</v>
       </c>
       <c r="S13">
-        <v>0.001830931175342946</v>
+        <v>0.001557854862674177</v>
       </c>
       <c r="T13">
-        <v>0.001830931175342946</v>
+        <v>0.001557854862674177</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1189606666666667</v>
+        <v>0.054036</v>
       </c>
       <c r="H14">
-        <v>0.356882</v>
+        <v>0.162108</v>
       </c>
       <c r="I14">
-        <v>0.05260623302537947</v>
+        <v>0.0229096440743406</v>
       </c>
       <c r="J14">
-        <v>0.05260623302537948</v>
+        <v>0.0229096440743406</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.463191</v>
+        <v>0.5001966666666666</v>
       </c>
       <c r="N14">
-        <v>1.389573</v>
+        <v>1.50059</v>
       </c>
       <c r="O14">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="P14">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="Q14">
-        <v>0.05510151015399999</v>
+        <v>0.02702862708</v>
       </c>
       <c r="R14">
-        <v>0.4959135913859999</v>
+        <v>0.24325764372</v>
       </c>
       <c r="S14">
-        <v>0.001858664845225276</v>
+        <v>0.0008921079469713925</v>
       </c>
       <c r="T14">
-        <v>0.001858664845225276</v>
+        <v>0.0008921079469713925</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1189606666666667</v>
+        <v>0.054036</v>
       </c>
       <c r="H15">
-        <v>0.356882</v>
+        <v>0.162108</v>
       </c>
       <c r="I15">
-        <v>0.05260623302537947</v>
+        <v>0.0229096440743406</v>
       </c>
       <c r="J15">
-        <v>0.05260623302537948</v>
+        <v>0.0229096440743406</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>29.798788</v>
       </c>
       <c r="O15">
-        <v>0.7576717833204485</v>
+        <v>0.7732779360092192</v>
       </c>
       <c r="P15">
-        <v>0.7576717833204486</v>
+        <v>0.7732779360092191</v>
       </c>
       <c r="Q15">
-        <v>1.181627895446222</v>
+        <v>0.536735769456</v>
       </c>
       <c r="R15">
-        <v>10.634651059016</v>
+        <v>4.830621925103999</v>
       </c>
       <c r="S15">
-        <v>0.03985825839011033</v>
+        <v>0.01771552228451194</v>
       </c>
       <c r="T15">
-        <v>0.03985825839011035</v>
+        <v>0.01771552228451194</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1189606666666667</v>
+        <v>0.054036</v>
       </c>
       <c r="H16">
-        <v>0.356882</v>
+        <v>0.162108</v>
       </c>
       <c r="I16">
-        <v>0.05260623302537947</v>
+        <v>0.0229096440743406</v>
       </c>
       <c r="J16">
-        <v>0.05260623302537948</v>
+        <v>0.0229096440743406</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.585130333333333</v>
+        <v>2.334238666666666</v>
       </c>
       <c r="N16">
-        <v>7.755390999999999</v>
+        <v>7.002715999999999</v>
       </c>
       <c r="O16">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411497</v>
       </c>
       <c r="P16">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411496</v>
       </c>
       <c r="Q16">
-        <v>0.3075288278735555</v>
+        <v>0.126132920592</v>
       </c>
       <c r="R16">
-        <v>2.767759450862</v>
+        <v>1.135196285328</v>
       </c>
       <c r="S16">
-        <v>0.01037345473226415</v>
+        <v>0.004163148224354236</v>
       </c>
       <c r="T16">
-        <v>0.01037345473226415</v>
+        <v>0.004163148224354235</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1189606666666667</v>
+        <v>0.054036</v>
       </c>
       <c r="H17">
-        <v>0.356882</v>
+        <v>0.162108</v>
       </c>
       <c r="I17">
-        <v>0.05260623302537947</v>
+        <v>0.0229096440743406</v>
       </c>
       <c r="J17">
-        <v>0.05260623302537948</v>
+        <v>0.0229096440743406</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1285543333333333</v>
+        <v>0.07786066666666666</v>
       </c>
       <c r="N17">
-        <v>0.385663</v>
+        <v>0.233582</v>
       </c>
       <c r="O17">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120818</v>
       </c>
       <c r="P17">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120817</v>
       </c>
       <c r="Q17">
-        <v>0.01529290919622222</v>
+        <v>0.004207278984</v>
       </c>
       <c r="R17">
-        <v>0.137636182766</v>
+        <v>0.037865510856</v>
       </c>
       <c r="S17">
-        <v>0.0005158550577797032</v>
+        <v>0.0001388656185030367</v>
       </c>
       <c r="T17">
-        <v>0.0005158550577797032</v>
+        <v>0.0001388656185030367</v>
       </c>
     </row>
   </sheetData>
